--- a/Definiciones Sprint 1 Entregable 1.xlsx
+++ b/Definiciones Sprint 1 Entregable 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniminuto0-my.sharepoint.com/personal/crodrigu176_uniminuto_edu_co/Documents/Archivos Varios/Backup/Semestre 2025 - I/Diseño Algoritmos/Proyecto Barventory/Proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto\Barventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{B182B7F8-6EA1-4E70-BAB4-835E4FD512BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F98A295-B630-4847-9421-53257B6D7115}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC078204-8652-4F1C-BEF0-9E017E604FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2247116C-0136-4D38-AF93-54D93D34180E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2247116C-0136-4D38-AF93-54D93D34180E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Autenticación</t>
   </si>
@@ -251,62 +251,16 @@
     <t>Como mesero, quiero filtrar los pedidos por estado (en cocina, servidos, cerrados) para gestionarlos mejor</t>
   </si>
   <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Quitar campo nombre de usuario</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Pide nombre sede, direccion. Basarse en mockup Formulario creación producto</t>
-  </si>
-  <si>
-    <t>Elmer</t>
-  </si>
-  <si>
-    <t>Santiago</t>
-  </si>
-  <si>
-    <t>Para la vista principal, se tendrá de referencia el mockup listado 
-la cual debe tener:
-1) Nombre 
-2) Rol
-3) Sede 
-4) Botón eliminar
-5) Botón actualizar
-Queda sujeto a decisión propia del diseño y desarrollo</t>
-  </si>
-  <si>
     <t>Consulta productos</t>
   </si>
   <si>
-    <t>Ver mockup listado de productos, y revisar el tema de grilla o visualizacion</t>
-  </si>
-  <si>
     <t>Consulta, y eliminación usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Validar mockup Actualizar datos
-Eliminar campo nombre de usuario </t>
-  </si>
-  <si>
-    <t>Tomar referencia mockup Eliminar mesas
-Añadir boton para crear nueva mesa
-Basarse en mockup crecion de mesa
-Se debe mantener el filtro por sede para consulta
-Al momento el que el usuario elimina la mesa, esta automaticamente debe desaparecer
-del registro que se muestra</t>
-  </si>
-  <si>
-    <t>En progreso</t>
+    <t>Como administrador, quiero consultar, actualizar y eliminar usuarios</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero consultar productos actuales por cada sede que sea seleccionada</t>
   </si>
 </sst>
 </file>
@@ -342,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -365,37 +319,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,20 +342,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BF14B5-9FD0-455B-BDF9-8FB58781E130}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -776,21 +692,11 @@
     <col min="3" max="3" width="102.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="6" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -805,15 +711,9 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -828,15 +728,9 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -851,29 +745,27 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" ht="138" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>20</v>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>46</v>
@@ -881,22 +773,16 @@
       <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -910,16 +796,10 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -927,22 +807,16 @@
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>21</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -951,17 +825,15 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -973,16 +845,12 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
@@ -994,16 +862,12 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
@@ -1015,31 +879,29 @@
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1054,9 +916,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -1071,9 +933,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -1090,7 +952,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>27</v>
@@ -1107,7 +969,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -1124,7 +986,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
@@ -1141,7 +1003,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
@@ -1158,7 +1020,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
@@ -1175,7 +1037,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>39</v>
@@ -1192,7 +1054,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -1209,7 +1071,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>43</v>
@@ -1226,7 +1088,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>51</v>
@@ -1243,7 +1105,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>53</v>
@@ -1260,7 +1122,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>55</v>
@@ -1277,7 +1139,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>57</v>
@@ -1294,7 +1156,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>59</v>
@@ -1311,7 +1173,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>63</v>
@@ -1328,7 +1190,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -1345,7 +1207,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>67</v>
@@ -1362,7 +1224,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
@@ -1378,10 +1240,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F8:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
